--- a/DataBook/Assignment1_Data_Analyst.xlsx
+++ b/DataBook/Assignment1_Data_Analyst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\DataBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077F741-258E-4270-B010-0236D68DAC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38055E-00E8-4EE5-A214-E4BF8A13AE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381ED41-E5F9-4684-ACF4-F784310D78D5}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B55"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataBook/Assignment1_Data_Analyst.xlsx
+++ b/DataBook/Assignment1_Data_Analyst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\DataBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38055E-00E8-4EE5-A214-E4BF8A13AE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AA4D6F-0A33-40BA-8DC6-E2A558222798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
+    <workbookView xWindow="8685" yWindow="2970" windowWidth="28800" windowHeight="15345" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381ED41-E5F9-4684-ACF4-F784310D78D5}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1066,158 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
